--- a/271025_Results_Med/output/summary/merged_mod2.xlsx
+++ b/271025_Results_Med/output/summary/merged_mod2.xlsx
@@ -5782,17 +5782,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Menos de 1000 cc</t>
+          <t>Eléctrico / No aplica</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>179 (95.7%)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>198 (94.3%)</t>
         </is>
       </c>
       <c r="F37">
@@ -5800,17 +5800,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1 (1.8%)</t>
+          <t>45 (80.4%)</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>1 (0.6%)</t>
+          <t>176 (97.8%)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>156 (96.9%)</t>
         </is>
       </c>
       <c r="J37">
@@ -5818,27 +5818,27 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>2 (10.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>18 (100.0%)</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>86 (100.0%)</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>47 (100.0%)</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>226 (100.0%)</t>
         </is>
       </c>
       <c r="P37">
@@ -5846,22 +5846,22 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>1 (1.6%)</t>
+          <t>59 (96.7%)</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>188 (97.9%)</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>38 (77.6%)</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>1 (1.1%)</t>
+          <t>92 (96.8%)</t>
         </is>
       </c>
       <c r="U37">
@@ -5869,17 +5869,17 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>53 (96.4%)</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>25 (96.2%)</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>1 (0.4%)</t>
+          <t>215 (93.5%)</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -5889,7 +5889,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>83 (98.8%)</t>
         </is>
       </c>
       <c r="AA37">
@@ -5897,17 +5897,17 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>138 (95.2%)</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>122 (93.8%)</t>
         </is>
       </c>
       <c r="AD37" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>117 (95.9%)</t>
         </is>
       </c>
       <c r="AE37">
@@ -5932,17 +5932,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>Menos de 1000 cc</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>179 (95.7%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>198 (94.3%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F38">
@@ -5950,17 +5950,17 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>45 (80.4%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>176 (97.8%)</t>
+          <t>1 (0.6%)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>156 (96.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="J38">
@@ -5968,27 +5968,27 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (10.0%)</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>18 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>86 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>47 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>226 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="P38">
@@ -5996,22 +5996,22 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>59 (96.7%)</t>
+          <t>1 (1.6%)</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>188 (97.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>38 (77.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>92 (96.8%)</t>
+          <t>1 (1.1%)</t>
         </is>
       </c>
       <c r="U38">
@@ -6019,17 +6019,17 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>53 (96.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>25 (96.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>215 (93.5%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
@@ -6039,7 +6039,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>83 (98.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="AA38">
@@ -6047,17 +6047,17 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>138 (95.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>122 (93.8%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="AD38" t="inlineStr">
         <is>
-          <t>117 (95.9%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="AE38">
@@ -6682,17 +6682,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Más de 250 cc</t>
+          <t>Eléctrico / No aplica</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>3 (1.6%)</t>
+          <t>132 (70.2%)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>180 (85.7%)</t>
         </is>
       </c>
       <c r="F43">
@@ -6700,17 +6700,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2 (3.6%)</t>
+          <t>36 (64.3%)</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>148 (81.8%)</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2 (1.2%)</t>
+          <t>128 (79.5%)</t>
         </is>
       </c>
       <c r="J43">
@@ -6718,27 +6718,27 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>21 (100.0%)</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>18 (100.0%)</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>4 (4.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>47 (100.0%)</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>226 (100.0%)</t>
         </is>
       </c>
       <c r="P43">
@@ -6746,22 +6746,22 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>57 (93.4%)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>152 (78.8%)</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>3 (6.1%)</t>
+          <t>34 (69.4%)</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>1 (1.1%)</t>
+          <t>69 (72.6%)</t>
         </is>
       </c>
       <c r="U43">
@@ -6769,27 +6769,27 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>51 (92.7%)</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>25 (96.2%)</t>
         </is>
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>3 (1.3%)</t>
+          <t>156 (67.5%)</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (100.0%)</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>78 (92.9%)</t>
         </is>
       </c>
       <c r="AA43">
@@ -6797,17 +6797,17 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>1 (0.7%)</t>
+          <t>109 (74.7%)</t>
         </is>
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>3 (2.3%)</t>
+          <t>89 (68.5%)</t>
         </is>
       </c>
       <c r="AD43" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>114 (93.4%)</t>
         </is>
       </c>
       <c r="AE43">
@@ -6832,17 +6832,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Menos de 125 cc</t>
+          <t>Más de 250 cc</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>8 (4.3%)</t>
+          <t>3 (1.6%)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>5 (2.4%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F44">
@@ -6850,17 +6850,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (3.6%)</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>7 (3.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>6 (3.7%)</t>
+          <t>2 (1.2%)</t>
         </is>
       </c>
       <c r="J44">
@@ -6878,7 +6878,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>13 (15.1%)</t>
+          <t>4 (4.7%)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -6896,22 +6896,22 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>3 (4.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>4 (2.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>4 (8.2%)</t>
+          <t>3 (6.1%)</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>2 (2.1%)</t>
+          <t>1 (1.1%)</t>
         </is>
       </c>
       <c r="U44">
@@ -6919,17 +6919,17 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>1 (1.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>1 (3.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>10 (4.3%)</t>
+          <t>3 (1.3%)</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
@@ -6947,17 +6947,17 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>4 (2.7%)</t>
+          <t>1 (0.7%)</t>
         </is>
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>6 (4.6%)</t>
+          <t>3 (2.3%)</t>
         </is>
       </c>
       <c r="AD44" t="inlineStr">
         <is>
-          <t>3 (2.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="AE44">
@@ -6982,17 +6982,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>Menos de 125 cc</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>132 (70.2%)</t>
+          <t>8 (4.3%)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>180 (85.7%)</t>
+          <t>5 (2.4%)</t>
         </is>
       </c>
       <c r="F45">
@@ -7000,17 +7000,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>36 (64.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>148 (81.8%)</t>
+          <t>7 (3.9%)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>128 (79.5%)</t>
+          <t>6 (3.7%)</t>
         </is>
       </c>
       <c r="J45">
@@ -7018,27 +7018,27 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>21 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>18 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>13 (15.1%)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>47 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>226 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="P45">
@@ -7046,22 +7046,22 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>57 (93.4%)</t>
+          <t>3 (4.9%)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>152 (78.8%)</t>
+          <t>4 (2.1%)</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>34 (69.4%)</t>
+          <t>4 (8.2%)</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>69 (72.6%)</t>
+          <t>2 (2.1%)</t>
         </is>
       </c>
       <c r="U45">
@@ -7069,27 +7069,27 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>51 (92.7%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>25 (96.2%)</t>
+          <t>1 (3.8%)</t>
         </is>
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>156 (67.5%)</t>
+          <t>10 (4.3%)</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>78 (92.9%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="AA45">
@@ -7097,17 +7097,17 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>109 (74.7%)</t>
+          <t>4 (2.7%)</t>
         </is>
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>89 (68.5%)</t>
+          <t>6 (4.6%)</t>
         </is>
       </c>
       <c r="AD45" t="inlineStr">
         <is>
-          <t>114 (93.4%)</t>
+          <t>3 (2.5%)</t>
         </is>
       </c>
       <c r="AE45">

--- a/271025_Results_Med/output/summary/merged_mod2.xlsx
+++ b/271025_Results_Med/output/summary/merged_mod2.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF84"/>
+  <dimension ref="A1:AF88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="F33">
-        <v>0.4132</v>
+        <v>0.4076</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -5214,11 +5214,11 @@
         </is>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>9 (45.0%)</t>
+          <t>9 (42.9%)</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -5311,7 +5311,7 @@
         </is>
       </c>
       <c r="AE33">
-        <v>0.6566</v>
+        <v>0.6651</v>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="F34">
-        <v>0.4132</v>
+        <v>0.4076</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -5364,11 +5364,11 @@
         </is>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>4 (20.0%)</t>
+          <t>4 (19.0%)</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -5461,7 +5461,7 @@
         </is>
       </c>
       <c r="AE34">
-        <v>0.6566</v>
+        <v>0.6651</v>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="F35">
-        <v>0.4132</v>
+        <v>0.4076</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -5514,11 +5514,11 @@
         </is>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>1 (5.0%)</t>
+          <t>1 (4.8%)</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -5611,7 +5611,7 @@
         </is>
       </c>
       <c r="AE35">
-        <v>0.6566</v>
+        <v>0.6651</v>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="F36">
-        <v>0.4132</v>
+        <v>0.4076</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -5664,11 +5664,11 @@
         </is>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>3 (15.0%)</t>
+          <t>3 (14.3%)</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -5761,7 +5761,7 @@
         </is>
       </c>
       <c r="AE36">
-        <v>0.6566</v>
+        <v>0.6651</v>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
@@ -5782,63 +5782,63 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Eléctrico / No aplica</t>
+          <t>3000 cc o más</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>179 (95.7%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>198 (94.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F37">
-        <v>0.4132</v>
+        <v>0.4076</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>45 (80.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>176 (97.8%)</t>
+          <t>1 (0.6%)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>156 (96.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (4.8%)</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>18 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>86 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>47 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>226 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="P37">
@@ -5846,22 +5846,22 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>59 (96.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>188 (97.9%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>38 (77.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>92 (96.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="U37">
@@ -5869,27 +5869,27 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>53 (96.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>25 (96.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>215 (93.5%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>1 (50.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>83 (98.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="AA37">
@@ -5897,21 +5897,21 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>138 (95.2%)</t>
+          <t>1 (0.7%)</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>122 (93.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="AD37" t="inlineStr">
         <is>
-          <t>117 (95.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="AE37">
-        <v>0.6566</v>
+        <v>0.6651</v>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
@@ -5932,63 +5932,63 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Menos de 1000 cc</t>
+          <t>Eléctrico / No aplica</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>179 (95.2%)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>198 (94.3%)</t>
         </is>
       </c>
       <c r="F38">
-        <v>0.4132</v>
+        <v>0.4076</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1 (1.8%)</t>
+          <t>45 (80.4%)</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>1 (0.6%)</t>
+          <t>176 (97.2%)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>156 (96.9%)</t>
         </is>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>2 (10.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>18 (100.0%)</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>86 (100.0%)</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>47 (100.0%)</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>226 (100.0%)</t>
         </is>
       </c>
       <c r="P38">
@@ -5996,22 +5996,22 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>1 (1.6%)</t>
+          <t>59 (96.7%)</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>188 (97.4%)</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>38 (77.6%)</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>1 (1.1%)</t>
+          <t>92 (96.8%)</t>
         </is>
       </c>
       <c r="U38">
@@ -6019,17 +6019,17 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>53 (96.4%)</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>25 (96.2%)</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>1 (0.4%)</t>
+          <t>215 (93.1%)</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
@@ -6039,7 +6039,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>83 (98.8%)</t>
         </is>
       </c>
       <c r="AA38">
@@ -6047,21 +6047,21 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>138 (94.5%)</t>
         </is>
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>122 (93.8%)</t>
         </is>
       </c>
       <c r="AD38" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>117 (95.9%)</t>
         </is>
       </c>
       <c r="AE38">
-        <v>0.6566</v>
+        <v>0.6651</v>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
@@ -6082,7 +6082,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>No sabe / No responde</t>
+          <t>Menos de 1000 cc</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -6092,33 +6092,33 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F39">
-        <v>0.4132</v>
+        <v>0.4076</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.6%)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>1 (0.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>1 (5.0%)</t>
+          <t>2 (9.5%)</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -6146,12 +6146,12 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.6%)</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
@@ -6161,7 +6161,7 @@
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.1%)</t>
         </is>
       </c>
       <c r="U39">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>1 (1.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
@@ -6179,12 +6179,12 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (50.0%)</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
@@ -6202,7 +6202,7 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="AD39" t="inlineStr">
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="AE39">
-        <v>0.6566</v>
+        <v>0.6651</v>
       </c>
       <c r="AF39" t="inlineStr">
         <is>
@@ -6222,53 +6222,53 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>cilindraje_moto_agregado</t>
+          <t>cilindraje_auto_agregado</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Cilindraje de motocicletas (agregado)</t>
+          <t>Cilindraje de automóviles (agregado)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>125 cc</t>
+          <t>No sabe / No responde</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>22 (11.7%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11 (5.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F40">
-        <v>0.0024</v>
+        <v>0.4076</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>10 (17.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>12 (6.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>11 (6.8%)</t>
+          <t>1 (0.6%)</t>
         </is>
       </c>
       <c r="J40">
-        <v>0.0401</v>
+        <v>0.0001</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (4.8%)</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -6278,7 +6278,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>33 (38.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -6301,21 +6301,21 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>15 (7.8%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>6 (12.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>12 (12.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="U40">
-        <v>0.0013</v>
+        <v>0</v>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>30 (13.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
@@ -6339,29 +6339,29 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2 (2.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="AA40">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>11 (7.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>18 (13.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="AD40" t="inlineStr">
         <is>
-          <t>4 (3.3%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="AE40">
-        <v>0.0005999999999999999</v>
+        <v>0.6651</v>
       </c>
       <c r="AF40" t="inlineStr">
         <is>
@@ -6382,17 +6382,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>150 - 250 cc</t>
+          <t>125 cc</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>13 (6.9%)</t>
+          <t>22 (11.7%)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4 (1.9%)</t>
+          <t>11 (5.2%)</t>
         </is>
       </c>
       <c r="F41">
@@ -6400,17 +6400,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2 (3.6%)</t>
+          <t>10 (17.9%)</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>7 (3.9%)</t>
+          <t>12 (6.6%)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>8 (5.0%)</t>
+          <t>11 (6.8%)</t>
         </is>
       </c>
       <c r="J41">
@@ -6428,7 +6428,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>17 (19.8%)</t>
+          <t>33 (38.4%)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -6451,17 +6451,17 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>10 (5.2%)</t>
+          <t>15 (7.8%)</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>1 (2.0%)</t>
+          <t>6 (12.2%)</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>6 (6.3%)</t>
+          <t>12 (12.6%)</t>
         </is>
       </c>
       <c r="U41">
@@ -6479,7 +6479,7 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>16 (6.9%)</t>
+          <t>30 (13.0%)</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
@@ -6489,7 +6489,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (2.4%)</t>
         </is>
       </c>
       <c r="AA41">
@@ -6497,17 +6497,17 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>10 (6.8%)</t>
+          <t>11 (7.5%)</t>
         </is>
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>7 (5.4%)</t>
+          <t>18 (13.8%)</t>
         </is>
       </c>
       <c r="AD41" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>4 (3.3%)</t>
         </is>
       </c>
       <c r="AE41">
@@ -6532,17 +6532,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>150 cc</t>
+          <t>150 - 250 cc</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>10 (5.3%)</t>
+          <t>13 (6.9%)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>6 (2.9%)</t>
+          <t>4 (1.9%)</t>
         </is>
       </c>
       <c r="F42">
@@ -6550,17 +6550,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>5 (8.9%)</t>
+          <t>2 (3.6%)</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>6 (3.3%)</t>
+          <t>7 (3.9%)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>5 (3.1%)</t>
+          <t>8 (5.0%)</t>
         </is>
       </c>
       <c r="J42">
@@ -6578,7 +6578,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>16 (18.6%)</t>
+          <t>17 (19.8%)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>11 (5.7%)</t>
+          <t>10 (5.2%)</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -6611,7 +6611,7 @@
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>4 (4.2%)</t>
+          <t>6 (6.3%)</t>
         </is>
       </c>
       <c r="U42">
@@ -6629,7 +6629,7 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>14 (6.1%)</t>
+          <t>16 (6.9%)</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
@@ -6639,7 +6639,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="AA42">
@@ -6652,7 +6652,7 @@
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>6 (4.6%)</t>
+          <t>7 (5.4%)</t>
         </is>
       </c>
       <c r="AD42" t="inlineStr">
@@ -6682,17 +6682,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Eléctrico / No aplica</t>
+          <t>150 cc</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>132 (70.2%)</t>
+          <t>10 (5.3%)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>180 (85.7%)</t>
+          <t>6 (2.9%)</t>
         </is>
       </c>
       <c r="F43">
@@ -6700,17 +6700,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>36 (64.3%)</t>
+          <t>5 (8.9%)</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>148 (81.8%)</t>
+          <t>6 (3.3%)</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>128 (79.5%)</t>
+          <t>5 (3.1%)</t>
         </is>
       </c>
       <c r="J43">
@@ -6718,27 +6718,27 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>21 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>18 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>16 (18.6%)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>47 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>226 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="P43">
@@ -6746,22 +6746,22 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>57 (93.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>152 (78.8%)</t>
+          <t>11 (5.7%)</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>34 (69.4%)</t>
+          <t>1 (2.0%)</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>69 (72.6%)</t>
+          <t>4 (4.2%)</t>
         </is>
       </c>
       <c r="U43">
@@ -6769,27 +6769,27 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>51 (92.7%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>25 (96.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>156 (67.5%)</t>
+          <t>14 (6.1%)</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>2 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>78 (92.9%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="AA43">
@@ -6797,17 +6797,17 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>109 (74.7%)</t>
+          <t>10 (6.8%)</t>
         </is>
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>89 (68.5%)</t>
+          <t>6 (4.6%)</t>
         </is>
       </c>
       <c r="AD43" t="inlineStr">
         <is>
-          <t>114 (93.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="AE43">
@@ -6832,17 +6832,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Más de 250 cc</t>
+          <t>Eléctrico / No aplica</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>3 (1.6%)</t>
+          <t>132 (70.2%)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>180 (85.7%)</t>
         </is>
       </c>
       <c r="F44">
@@ -6850,17 +6850,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2 (3.6%)</t>
+          <t>36 (64.3%)</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>148 (81.8%)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2 (1.2%)</t>
+          <t>128 (79.5%)</t>
         </is>
       </c>
       <c r="J44">
@@ -6868,27 +6868,27 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>21 (100.0%)</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>18 (100.0%)</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>4 (4.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>47 (100.0%)</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>226 (100.0%)</t>
         </is>
       </c>
       <c r="P44">
@@ -6896,22 +6896,22 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>57 (93.4%)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>152 (78.8%)</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>3 (6.1%)</t>
+          <t>34 (69.4%)</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>1 (1.1%)</t>
+          <t>69 (72.6%)</t>
         </is>
       </c>
       <c r="U44">
@@ -6919,27 +6919,27 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>51 (92.7%)</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>25 (96.2%)</t>
         </is>
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>3 (1.3%)</t>
+          <t>156 (67.5%)</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (100.0%)</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>78 (92.9%)</t>
         </is>
       </c>
       <c r="AA44">
@@ -6947,17 +6947,17 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>1 (0.7%)</t>
+          <t>109 (74.7%)</t>
         </is>
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>3 (2.3%)</t>
+          <t>89 (68.5%)</t>
         </is>
       </c>
       <c r="AD44" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>114 (93.4%)</t>
         </is>
       </c>
       <c r="AE44">
@@ -6982,17 +6982,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Menos de 125 cc</t>
+          <t>Más de 250 cc</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>8 (4.3%)</t>
+          <t>3 (1.6%)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>5 (2.4%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F45">
@@ -7000,17 +7000,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (3.6%)</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>7 (3.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>6 (3.7%)</t>
+          <t>2 (1.2%)</t>
         </is>
       </c>
       <c r="J45">
@@ -7028,7 +7028,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>13 (15.1%)</t>
+          <t>4 (4.7%)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -7046,22 +7046,22 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>3 (4.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>4 (2.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>4 (8.2%)</t>
+          <t>3 (6.1%)</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>2 (2.1%)</t>
+          <t>1 (1.1%)</t>
         </is>
       </c>
       <c r="U45">
@@ -7069,17 +7069,17 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>1 (1.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>1 (3.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>10 (4.3%)</t>
+          <t>3 (1.3%)</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
@@ -7097,17 +7097,17 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>4 (2.7%)</t>
+          <t>1 (0.7%)</t>
         </is>
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>6 (4.6%)</t>
+          <t>3 (2.3%)</t>
         </is>
       </c>
       <c r="AD45" t="inlineStr">
         <is>
-          <t>3 (2.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="AE45">
@@ -7132,17 +7132,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>No sabe / No responde</t>
+          <t>Menos de 125 cc</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>8 (4.3%)</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3 (1.4%)</t>
+          <t>5 (2.4%)</t>
         </is>
       </c>
       <c r="F46">
@@ -7150,17 +7150,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>1 (1.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>1 (0.6%)</t>
+          <t>7 (3.9%)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>1 (0.6%)</t>
+          <t>6 (3.7%)</t>
         </is>
       </c>
       <c r="J46">
@@ -7178,7 +7178,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>3 (3.5%)</t>
+          <t>13 (15.1%)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -7196,22 +7196,22 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>1 (1.6%)</t>
+          <t>3 (4.9%)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>4 (2.1%)</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>4 (8.2%)</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>1 (1.1%)</t>
+          <t>2 (2.1%)</t>
         </is>
       </c>
       <c r="U46">
@@ -7219,17 +7219,17 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (3.8%)</t>
         </is>
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>2 (0.9%)</t>
+          <t>10 (4.3%)</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
@@ -7247,17 +7247,17 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>1 (0.7%)</t>
+          <t>4 (2.7%)</t>
         </is>
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>6 (4.6%)</t>
         </is>
       </c>
       <c r="AD46" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>3 (2.5%)</t>
         </is>
       </c>
       <c r="AE46">
@@ -7272,128 +7272,146 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>cilindraje_camion_agregado</t>
+          <t>cilindraje_moto_agregado</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Cilindraje de camiones (futuro)</t>
+          <t>Cilindraje de motocicletas (agregado)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>No sabe / No responde</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>188 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>210 (100.0%)</t>
-        </is>
+          <t>3 (1.4%)</t>
+        </is>
+      </c>
+      <c r="F47">
+        <v>0.0024</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>56 (100.0%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>181 (100.0%)</t>
+          <t>1 (0.6%)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>161 (100.0%)</t>
-        </is>
+          <t>1 (0.6%)</t>
+        </is>
+      </c>
+      <c r="J47">
+        <v>0.0401</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>21 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>18 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>86 (100.0%)</t>
+          <t>3 (3.5%)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>47 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>226 (100.0%)</t>
-        </is>
+          <t>0 (0.0%)</t>
+        </is>
+      </c>
+      <c r="P47">
+        <v>0</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>61 (100.0%)</t>
+          <t>1 (1.6%)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>193 (100.0%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>49 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>95 (100.0%)</t>
-        </is>
+          <t>1 (1.1%)</t>
+        </is>
+      </c>
+      <c r="U47">
+        <v>0.0013</v>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>55 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>26 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>231 (100.0%)</t>
+          <t>2 (0.9%)</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>2 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>84 (100.0%)</t>
-        </is>
+          <t>1 (1.2%)</t>
+        </is>
+      </c>
+      <c r="AA47">
+        <v>0.011</v>
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>146 (100.0%)</t>
+          <t>1 (0.7%)</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>130 (100.0%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="AD47" t="inlineStr">
         <is>
-          <t>122 (100.0%)</t>
-        </is>
+          <t>1 (0.8%)</t>
+        </is>
+      </c>
+      <c r="AE47">
+        <v>0.0005999999999999999</v>
       </c>
       <c r="AF47" t="inlineStr">
         <is>
@@ -10869,34 +10887,34 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>20 (10.8%)</t>
+          <t>20 (10.6%)</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>32 (15.5%)</t>
+          <t>32 (15.2%)</t>
         </is>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>4 (7.3%)</t>
+          <t>4 (7.1%)</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>27 (15.2%)</t>
+          <t>27 (14.9%)</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>21 (13.1%)</t>
+          <t>21 (13.0%)</t>
         </is>
       </c>
       <c r="J71">
-        <v>0.2718</v>
+        <v>0.4006</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -10915,12 +10933,12 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>7 (15.6%)</t>
+          <t>7 (14.9%)</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>34 (15.2%)</t>
+          <t>34 (15.0%)</t>
         </is>
       </c>
       <c r="P71">
@@ -10928,17 +10946,17 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>10 (16.9%)</t>
+          <t>10 (16.4%)</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>29 (15.2%)</t>
+          <t>29 (15.0%)</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>2 (4.2%)</t>
+          <t>2 (4.1%)</t>
         </is>
       </c>
       <c r="T71" t="inlineStr">
@@ -10951,7 +10969,7 @@
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>12 (22.6%)</t>
+          <t>12 (21.8%)</t>
         </is>
       </c>
       <c r="W71" t="inlineStr">
@@ -10971,7 +10989,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>25 (30.5%)</t>
+          <t>25 (29.8%)</t>
         </is>
       </c>
       <c r="AA71">
@@ -10989,7 +11007,7 @@
       </c>
       <c r="AD71" t="inlineStr">
         <is>
-          <t>24 (20.3%)</t>
+          <t>24 (19.7%)</t>
         </is>
       </c>
       <c r="AE71">
@@ -11014,7 +11032,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Cuidado y familia (centro educativo, niños/as o jóvenes)</t>
+          <t>Cuidado y familia (escuela, niñas/os)</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -11028,7 +11046,7 @@
         </is>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -11046,7 +11064,7 @@
         </is>
       </c>
       <c r="J72">
-        <v>0.2718</v>
+        <v>0.4006</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -11101,7 +11119,7 @@
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>1 (1.9%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
       <c r="W72" t="inlineStr">
@@ -11129,7 +11147,7 @@
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>4 (2.8%)</t>
+          <t>4 (2.7%)</t>
         </is>
       </c>
       <c r="AC72" t="inlineStr">
@@ -11164,63 +11182,63 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Estudio</t>
+          <t>Cuidado y familia (persona con discapacidad)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>21 (11.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>12 (5.8%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>5 (9.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>14 (7.9%)</t>
+          <t>1 (0.6%)</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>14 (8.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="J73">
-        <v>0.2718</v>
+        <v>0.4006</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>1 (4.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>4 (22.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>9 (10.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>1 (2.2%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>18 (8.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="P73">
@@ -11228,22 +11246,22 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>1 (1.7%)</t>
+          <t>1 (1.6%)</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>19 (9.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>4 (8.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>9 (9.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="U73">
@@ -11256,12 +11274,12 @@
       </c>
       <c r="W73" t="inlineStr">
         <is>
-          <t>22 (84.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>11 (4.8%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="Y73" t="inlineStr">
@@ -11279,12 +11297,12 @@
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>28 (19.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="AC73" t="inlineStr">
         <is>
-          <t>4 (3.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="AD73" t="inlineStr">
@@ -11314,7 +11332,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Otro</t>
+          <t>Cuidado y familia (persona enferma)</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -11324,11 +11342,11 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2 (1.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -11337,25 +11355,25 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
+          <t>0 (0.0%)</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
           <t>1 (0.6%)</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>2 (1.2%)</t>
-        </is>
-      </c>
       <c r="J74">
-        <v>0.2718</v>
+        <v>0.4006</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>1 (4.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>1 (5.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -11365,12 +11383,12 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>1 (2.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="P74">
@@ -11378,7 +11396,7 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>1 (1.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
@@ -11388,7 +11406,7 @@
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>1 (2.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="T74" t="inlineStr">
@@ -11401,7 +11419,7 @@
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>2 (3.8%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
       <c r="W74" t="inlineStr">
@@ -11421,7 +11439,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="AA74">
@@ -11434,12 +11452,12 @@
       </c>
       <c r="AC74" t="inlineStr">
         <is>
+          <t>0 (0.0%)</t>
+        </is>
+      </c>
+      <c r="AD74" t="inlineStr">
+        <is>
           <t>1 (0.8%)</t>
-        </is>
-      </c>
-      <c r="AD74" t="inlineStr">
-        <is>
-          <t>2 (1.7%)</t>
         </is>
       </c>
       <c r="AE74">
@@ -11464,63 +11482,63 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Recreación, salud y actividades personales</t>
+          <t>Cuidado y familia (recreación, niñas/os)</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>23 (12.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>67 (32.4%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>8 (14.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>42 (23.6%)</t>
+          <t>1 (0.6%)</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>40 (25.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="J75">
-        <v>0.2718</v>
+        <v>0.4006</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>1 (4.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>3 (16.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>2 (2.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>20 (44.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>64 (28.7%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="P75">
@@ -11528,22 +11546,22 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>29 (49.2%)</t>
+          <t>1 (1.6%)</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>46 (24.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>4 (8.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>11 (11.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="U75">
@@ -11551,17 +11569,17 @@
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>27 (50.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="W75" t="inlineStr">
         <is>
-          <t>1 (3.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>18 (7.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Y75" t="inlineStr">
@@ -11571,7 +11589,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>44 (53.7%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="AA75">
@@ -11579,17 +11597,17 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>11 (7.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="AC75" t="inlineStr">
         <is>
-          <t>26 (20.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="AD75" t="inlineStr">
         <is>
-          <t>53 (44.9%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="AE75">
@@ -11614,63 +11632,63 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Trabajo</t>
+          <t>Cuidado y familia (salud, niñas/os)</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>112 (60.2%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>82 (39.6%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>38 (69.1%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>81 (45.5%)</t>
+          <t>1 (0.6%)</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>75 (46.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="J76">
-        <v>0.2718</v>
+        <v>0.4006</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>17 (81.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>7 (38.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>58 (67.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>12 (26.7%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>100 (44.8%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="P76">
@@ -11678,22 +11696,22 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>14 (23.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>86 (45.0%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>37 (77.1%)</t>
+          <t>1 (2.0%)</t>
         </is>
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>57 (60.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="U76">
@@ -11701,7 +11719,7 @@
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>7 (13.2%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
       <c r="W76" t="inlineStr">
@@ -11711,17 +11729,17 @@
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>182 (79.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>1 (50.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>4 (4.9%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="AA76">
@@ -11729,17 +11747,17 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>80 (55.2%)</t>
+          <t>1 (0.7%)</t>
         </is>
       </c>
       <c r="AC76" t="inlineStr">
         <is>
-          <t>83 (63.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="AD76" t="inlineStr">
         <is>
-          <t>31 (26.3%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="AE76">
@@ -11764,63 +11782,63 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Visitas sociales</t>
+          <t>Estudio</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>8 (4.3%)</t>
+          <t>21 (11.2%)</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>8 (3.9%)</t>
+          <t>12 (5.7%)</t>
         </is>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>5 (8.9%)</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>10 (5.6%)</t>
+          <t>14 (7.7%)</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>6 (3.8%)</t>
+          <t>14 (8.7%)</t>
         </is>
       </c>
       <c r="J77">
-        <v>0.2718</v>
+        <v>0.4006</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (4.8%)</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>4 (22.2%)</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>6 (7.0%)</t>
+          <t>9 (10.5%)</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>4 (8.9%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>6 (2.7%)</t>
+          <t>18 (8.0%)</t>
         </is>
       </c>
       <c r="P77">
@@ -11828,22 +11846,22 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>4 (6.8%)</t>
+          <t>1 (1.6%)</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>7 (3.7%)</t>
+          <t>19 (9.8%)</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>4 (8.2%)</t>
         </is>
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>5 (5.3%)</t>
+          <t>9 (9.5%)</t>
         </is>
       </c>
       <c r="U77">
@@ -11851,17 +11869,17 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>4 (7.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="W77" t="inlineStr">
         <is>
-          <t>1 (3.8%)</t>
+          <t>22 (84.6%)</t>
         </is>
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>5 (2.2%)</t>
+          <t>11 (4.8%)</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr">
@@ -11871,7 +11889,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>6 (7.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="AA77">
@@ -11879,17 +11897,17 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>7 (4.8%)</t>
+          <t>28 (19.2%)</t>
         </is>
       </c>
       <c r="AC77" t="inlineStr">
         <is>
-          <t>2 (1.5%)</t>
+          <t>4 (3.1%)</t>
         </is>
       </c>
       <c r="AD77" t="inlineStr">
         <is>
-          <t>7 (5.9%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="AE77">
@@ -11904,91 +11922,96 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>p1edad</t>
+          <t>p23_agregado</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>¿Cuántos años cumplidos tiene?</t>
+          <t>Propósito principal del viaje (armonizado y detallado con grupos de cuidado: niños/as o jóvenes)</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Otro</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>39.0 (26.0–56.2)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>44.0 (30.0–59.8)</t>
+          <t>2 (1.0%)</t>
         </is>
       </c>
       <c r="F78">
-        <v>0.0304</v>
+        <v>0.0001</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>39.0 (31.8–49.0)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>41.0 (26.0–56.0)</t>
+          <t>1 (0.6%)</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>48.0 (31.0–61.0)</t>
+          <t>2 (1.2%)</t>
         </is>
       </c>
       <c r="J78">
-        <v>0.0135</v>
+        <v>0.4006</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>39.0 (31.0–54.0)</t>
+          <t>1 (4.8%)</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>50.5 (25.8–58.0)</t>
+          <t>1 (5.6%)</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>35.5 (26.2–44.0)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>54.0 (39.0–66.0)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>44.0 (29.0–60.0)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="P78">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>64.0 (55.0–72.0)</t>
+          <t>1 (1.6%)</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>42.0 (25.0–56.0)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>39.0 (32.0–46.0)</t>
+          <t>1 (2.0%)</t>
         </is>
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>34.0 (26.5–43.0)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="U78">
@@ -11996,27 +12019,27 @@
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>65.0 (51.0–70.0)</t>
+          <t>2 (3.6%)</t>
         </is>
       </c>
       <c r="W78" t="inlineStr">
         <is>
-          <t>19.0 (18.0–20.0)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="X78" t="inlineStr">
         <is>
-          <t>38.0 (29.0–49.0)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>59.5 (58.8–60.2)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>55.5 (43.8–66.0)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="AA78">
@@ -12024,17 +12047,17 @@
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>25.5 (20.2–30.0)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="AC78" t="inlineStr">
         <is>
-          <t>44.0 (39.0–49.8)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="AD78" t="inlineStr">
         <is>
-          <t>65.0 (60.0–70.0)</t>
+          <t>2 (1.6%)</t>
         </is>
       </c>
       <c r="AE78">
@@ -12049,136 +12072,146 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>p18</t>
+          <t>p23_agregado</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Tiempo total de viaje (minutos)</t>
+          <t>Propósito principal del viaje (armonizado y detallado con grupos de cuidado: niños/as o jóvenes)</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Recreación, salud y actividades personales</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>22.5 (15.0–35.0)</t>
+          <t>23 (12.2%)</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>30.0 (15.0–40.0)</t>
+          <t>67 (31.9%)</t>
         </is>
       </c>
       <c r="F79">
-        <v>0.4378</v>
+        <v>0.0001</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>35.0 (28.8–40.0)</t>
+          <t>8 (14.3%)</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>25.0 (15.0–40.0)</t>
+          <t>42 (23.2%)</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>20.0 (15.0–30.0)</t>
+          <t>40 (24.8%)</t>
         </is>
       </c>
       <c r="J79">
-        <v>0.001</v>
+        <v>0.4006</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>30.0 (15.0–40.0)</t>
+          <t>1 (4.8%)</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>20.0 (11.2–37.5)</t>
+          <t>3 (16.7%)</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>27.5 (15.0–35.0)</t>
+          <t>2 (2.3%)</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>20.0 (15.0–35.0)</t>
+          <t>20 (42.6%)</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>64 (28.3%)</t>
         </is>
       </c>
       <c r="P79">
-        <v>0.5963000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>20.0 (15.0–20.0)</t>
+          <t>29 (47.5%)</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>20.0 (15.0–40.0)</t>
+          <t>46 (23.8%)</t>
         </is>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>30.0 (20.0–35.0)</t>
+          <t>4 (8.2%)</t>
         </is>
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t>30.0 (20.0–40.0)</t>
+          <t>11 (11.6%)</t>
         </is>
       </c>
       <c r="U79">
-        <v>0.1132</v>
+        <v>0</v>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>17.5 (15.0–20.0)</t>
+          <t>27 (49.1%)</t>
         </is>
       </c>
       <c r="W79" t="inlineStr">
         <is>
-          <t>15.0 (10.0–22.5)</t>
+          <t>1 (3.8%)</t>
         </is>
       </c>
       <c r="X79" t="inlineStr">
         <is>
-          <t>30.0 (15.0–40.0)</t>
+          <t>18 (7.8%)</t>
         </is>
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>10.0 (10.0–10.0)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>30.0 (20.0–40.0)</t>
+          <t>44 (52.4%)</t>
         </is>
       </c>
       <c r="AA79">
-        <v>0.0047</v>
+        <v>0</v>
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>20.0 (15.0–30.0)</t>
+          <t>11 (7.5%)</t>
         </is>
       </c>
       <c r="AC79" t="inlineStr">
         <is>
-          <t>30.0 (20.0–40.0)</t>
+          <t>26 (20.0%)</t>
         </is>
       </c>
       <c r="AD79" t="inlineStr">
         <is>
-          <t>20.0 (15.0–30.0)</t>
+          <t>53 (43.4%)</t>
         </is>
       </c>
       <c r="AE79">
-        <v>0.0453</v>
+        <v>0</v>
       </c>
       <c r="AF79" t="inlineStr">
         <is>
@@ -12189,118 +12222,146 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>p18_p1</t>
+          <t>p23_agregado</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Minutos caminando hasta el modo de transporte</t>
+          <t>Propósito principal del viaje (armonizado y detallado con grupos de cuidado: niños/as o jóvenes)</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Trabajo</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>5.5 (5.0–15.0)</t>
+          <t>112 (59.6%)</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>5.0 (5.0–10.0)</t>
+          <t>82 (39.0%)</t>
         </is>
       </c>
       <c r="F80">
-        <v>0.1961</v>
+        <v>0.0001</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>5.0 (5.0–11.2)</t>
+          <t>38 (67.9%)</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>5.0 (5.0–10.0)</t>
+          <t>81 (44.8%)</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>10.0 (5.0–15.0)</t>
+          <t>75 (46.6%)</t>
         </is>
       </c>
       <c r="J80">
-        <v>0.4112</v>
+        <v>0.4006</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>17 (81.0%)</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>7 (38.9%)</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>58 (67.4%)</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>12 (25.5%)</t>
+        </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>5.0 (5.0–15.0)</t>
-        </is>
+          <t>100 (44.2%)</t>
+        </is>
+      </c>
+      <c r="P80">
+        <v>0</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>10.0 (5.0–15.0)</t>
+          <t>14 (23.0%)</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>5.0 (5.0–10.0)</t>
+          <t>86 (44.6%)</t>
         </is>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>10.0 (5.0–15.0)</t>
+          <t>37 (75.5%)</t>
         </is>
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>5.0 (5.0–13.5)</t>
+          <t>57 (60.0%)</t>
         </is>
       </c>
       <c r="U80">
-        <v>0.7974</v>
+        <v>0</v>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>10.0 (5.0–15.0)</t>
+          <t>7 (12.7%)</t>
         </is>
       </c>
       <c r="W80" t="inlineStr">
         <is>
-          <t>10.0 (5.0–13.5)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>5.0 (5.0–15.0)</t>
+          <t>182 (78.8%)</t>
         </is>
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>10.0 (10.0–10.0)</t>
+          <t>1 (50.0%)</t>
         </is>
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>5.0 (5.0–10.0)</t>
+          <t>4 (4.8%)</t>
         </is>
       </c>
       <c r="AA80">
-        <v>0.1822</v>
+        <v>0</v>
       </c>
       <c r="AB80" t="inlineStr">
         <is>
-          <t>5.0 (5.0–10.5)</t>
+          <t>80 (54.8%)</t>
         </is>
       </c>
       <c r="AC80" t="inlineStr">
         <is>
-          <t>5.0 (5.0–15.0)</t>
+          <t>83 (63.8%)</t>
         </is>
       </c>
       <c r="AD80" t="inlineStr">
         <is>
-          <t>10.0 (5.0–15.0)</t>
+          <t>31 (25.4%)</t>
         </is>
       </c>
       <c r="AE80">
-        <v>0.5534</v>
+        <v>0</v>
       </c>
       <c r="AF80" t="inlineStr">
         <is>
@@ -12311,118 +12372,146 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>p18_p2</t>
+          <t>p23_agregado</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Minutos de espera del transporte</t>
+          <t>Propósito principal del viaje (armonizado y detallado con grupos de cuidado: niños/as o jóvenes)</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Visitas sociales</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>5.0 (5.0–10.5)</t>
+          <t>8 (4.3%)</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>5.0 (5.0–10.0)</t>
+          <t>8 (3.8%)</t>
         </is>
       </c>
       <c r="F81">
-        <v>0.5096000000000001</v>
+        <v>0.0001</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>5.0 (5.0–11.2)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>5.0 (5.0–10.0)</t>
+          <t>10 (5.5%)</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>5.0 (5.0–10.0)</t>
+          <t>6 (3.7%)</t>
         </is>
       </c>
       <c r="J81">
-        <v>0.8794</v>
+        <v>0.4006</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>0 (0.0%)</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>0 (0.0%)</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>6 (7.0%)</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>4 (8.5%)</t>
+        </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>5.0 (5.0–10.0)</t>
-        </is>
+          <t>6 (2.7%)</t>
+        </is>
+      </c>
+      <c r="P81">
+        <v>0</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>10.0 (5.0–15.0)</t>
+          <t>4 (6.6%)</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>5.0 (5.0–10.0)</t>
+          <t>7 (3.6%)</t>
         </is>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>5.0 (4.8–10.0)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="T81" t="inlineStr">
         <is>
-          <t>5.0 (5.0–15.0)</t>
+          <t>5 (5.3%)</t>
         </is>
       </c>
       <c r="U81">
-        <v>0.2728</v>
+        <v>0</v>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>5.0 (3.5–10.0)</t>
+          <t>4 (7.3%)</t>
         </is>
       </c>
       <c r="W81" t="inlineStr">
         <is>
-          <t>6.0 (5.0–10.0)</t>
+          <t>1 (3.8%)</t>
         </is>
       </c>
       <c r="X81" t="inlineStr">
         <is>
-          <t>5.0 (5.0–10.0)</t>
+          <t>5 (2.2%)</t>
         </is>
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>12.0 (12.0–12.0)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>5.0 (5.0–10.0)</t>
+          <t>6 (7.1%)</t>
         </is>
       </c>
       <c r="AA81">
-        <v>0.8258</v>
+        <v>0</v>
       </c>
       <c r="AB81" t="inlineStr">
         <is>
-          <t>8.0 (5.0–11.2)</t>
+          <t>7 (4.8%)</t>
         </is>
       </c>
       <c r="AC81" t="inlineStr">
         <is>
-          <t>5.0 (5.0–9.0)</t>
+          <t>2 (1.5%)</t>
         </is>
       </c>
       <c r="AD81" t="inlineStr">
         <is>
-          <t>5.0 (5.0–13.5)</t>
+          <t>7 (5.7%)</t>
         </is>
       </c>
       <c r="AE81">
-        <v>0.2179</v>
+        <v>0</v>
       </c>
       <c r="AF81" t="inlineStr">
         <is>
@@ -12433,118 +12522,141 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>p18_p3</t>
+          <t>p1edad</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Minutos de trayecto en transporte (arranca -&gt; baja)</t>
+          <t>¿Cuántos años cumplidos tiene?</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>30.0 (20.0–40.0)</t>
+          <t>39.0 (26.0–56.2)</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>30.0 (16.2–40.0)</t>
+          <t>44.0 (30.0–59.8)</t>
         </is>
       </c>
       <c r="F82">
-        <v>0.5624</v>
+        <v>0.0304</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>22.5 (20.0–35.0)</t>
+          <t>39.0 (31.8–49.0)</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>30.0 (20.0–41.2)</t>
+          <t>41.0 (26.0–56.0)</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>27.5 (15.0–40.0)</t>
+          <t>48.0 (31.0–61.0)</t>
         </is>
       </c>
       <c r="J82">
-        <v>0.1903</v>
+        <v>0.0135</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>39.0 (31.0–54.0)</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>50.5 (25.8–58.0)</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>35.5 (26.2–44.0)</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>54.0 (39.0–66.0)</t>
+        </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>30.0 (20.0–40.0)</t>
-        </is>
+          <t>44.0 (29.0–60.0)</t>
+        </is>
+      </c>
+      <c r="P82">
+        <v>0.0001</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>30.0 (20.0–37.5)</t>
+          <t>64.0 (55.0–72.0)</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>30.0 (15.0–40.0)</t>
+          <t>42.0 (25.0–56.0)</t>
         </is>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>20.0 (15.0–30.0)</t>
+          <t>39.0 (32.0–46.0)</t>
         </is>
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>30.0 (20.0–40.0)</t>
+          <t>34.0 (26.5–43.0)</t>
         </is>
       </c>
       <c r="U82">
-        <v>0.0902</v>
+        <v>0</v>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>30.0 (17.5–40.0)</t>
+          <t>65.0 (51.0–70.0)</t>
         </is>
       </c>
       <c r="W82" t="inlineStr">
         <is>
-          <t>30.0 (20.0–40.0)</t>
+          <t>19.0 (18.0–20.0)</t>
         </is>
       </c>
       <c r="X82" t="inlineStr">
         <is>
-          <t>30.0 (20.0–40.0)</t>
+          <t>38.0 (29.0–49.0)</t>
         </is>
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>45.0 (45.0–45.0)</t>
+          <t>59.5 (58.8–60.2)</t>
         </is>
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>30.0 (20.0–37.5)</t>
+          <t>55.5 (43.8–66.0)</t>
         </is>
       </c>
       <c r="AA82">
-        <v>0.762</v>
+        <v>0</v>
       </c>
       <c r="AB82" t="inlineStr">
         <is>
-          <t>30.0 (20.0–40.0)</t>
+          <t>25.5 (20.2–30.0)</t>
         </is>
       </c>
       <c r="AC82" t="inlineStr">
         <is>
-          <t>30.0 (20.0–40.0)</t>
+          <t>44.0 (39.0–49.8)</t>
         </is>
       </c>
       <c r="AD82" t="inlineStr">
         <is>
-          <t>25.0 (15.0–37.5)</t>
+          <t>65.0 (60.0–70.0)</t>
         </is>
       </c>
       <c r="AE82">
-        <v>0.4137</v>
+        <v>0</v>
       </c>
       <c r="AF82" t="inlineStr">
         <is>
@@ -12555,118 +12667,136 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>p18_p4</t>
+          <t>p18</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Minutos caminando después del descenso</t>
+          <t>Tiempo total de viaje (minutos)</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>10.0 (5.0–15.0)</t>
+          <t>22.5 (15.0–35.0)</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>10.0 (5.0–15.0)</t>
+          <t>30.0 (15.0–40.0)</t>
         </is>
       </c>
       <c r="F83">
-        <v>0.7896</v>
+        <v>0.4378</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>10.0 (5.0–11.2)</t>
+          <t>35.0 (28.8–40.0)</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>10.0 (5.0–15.0)</t>
+          <t>25.0 (15.0–40.0)</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>10.0 (5.0–14.2)</t>
+          <t>20.0 (15.0–30.0)</t>
         </is>
       </c>
       <c r="J83">
-        <v>0.9721</v>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>10.0 (5.0–15.0)</t>
-        </is>
+        <v>0.001</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>30.0 (15.0–40.0)</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>20.0 (11.2–37.5)</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>27.5 (15.0–35.0)</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>20.0 (15.0–35.0)</t>
+        </is>
+      </c>
+      <c r="P83">
+        <v>0.5963000000000001</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>10.0 (5.0–20.0)</t>
+          <t>20.0 (15.0–20.0)</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>10.0 (5.0–15.0)</t>
+          <t>20.0 (15.0–40.0)</t>
         </is>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>5.0 (5.0–15.0)</t>
+          <t>30.0 (20.0–35.0)</t>
         </is>
       </c>
       <c r="T83" t="inlineStr">
         <is>
-          <t>5.0 (5.0–10.0)</t>
+          <t>30.0 (20.0–40.0)</t>
         </is>
       </c>
       <c r="U83">
-        <v>0.0148</v>
+        <v>0.1132</v>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>10.0 (5.0–15.0)</t>
+          <t>17.5 (15.0–20.0)</t>
         </is>
       </c>
       <c r="W83" t="inlineStr">
         <is>
-          <t>5.0 (1.5–10.0)</t>
+          <t>15.0 (10.0–22.5)</t>
         </is>
       </c>
       <c r="X83" t="inlineStr">
         <is>
-          <t>10.0 (5.0–11.2)</t>
+          <t>30.0 (15.0–40.0)</t>
         </is>
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>5.0 (5.0–5.0)</t>
+          <t>10.0 (10.0–10.0)</t>
         </is>
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>10.0 (5.0–15.0)</t>
+          <t>30.0 (20.0–40.0)</t>
         </is>
       </c>
       <c r="AA83">
-        <v>0.0389</v>
+        <v>0.0047</v>
       </c>
       <c r="AB83" t="inlineStr">
         <is>
-          <t>8.5 (5.0–10.0)</t>
+          <t>20.0 (15.0–30.0)</t>
         </is>
       </c>
       <c r="AC83" t="inlineStr">
         <is>
-          <t>10.0 (5.0–15.0)</t>
+          <t>30.0 (20.0–40.0)</t>
         </is>
       </c>
       <c r="AD83" t="inlineStr">
         <is>
-          <t>10.0 (5.0–15.0)</t>
+          <t>20.0 (15.0–30.0)</t>
         </is>
       </c>
       <c r="AE83">
-        <v>0.046</v>
+        <v>0.0453</v>
       </c>
       <c r="AF83" t="inlineStr">
         <is>
@@ -12677,110 +12807,598 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
+          <t>p18_p1</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Minutos caminando hasta el modo de transporte</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>5.5 (5.0–15.0)</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–10.0)</t>
+        </is>
+      </c>
+      <c r="F84">
+        <v>0.1961</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–11.2)</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–10.0)</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>10.0 (5.0–15.0)</t>
+        </is>
+      </c>
+      <c r="J84">
+        <v>0.4112</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–15.0)</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>10.0 (5.0–15.0)</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–10.0)</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>10.0 (5.0–15.0)</t>
+        </is>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–13.5)</t>
+        </is>
+      </c>
+      <c r="U84">
+        <v>0.7974</v>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>10.0 (5.0–15.0)</t>
+        </is>
+      </c>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>10.0 (5.0–13.5)</t>
+        </is>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–15.0)</t>
+        </is>
+      </c>
+      <c r="Y84" t="inlineStr">
+        <is>
+          <t>10.0 (10.0–10.0)</t>
+        </is>
+      </c>
+      <c r="Z84" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–10.0)</t>
+        </is>
+      </c>
+      <c r="AA84">
+        <v>0.1822</v>
+      </c>
+      <c r="AB84" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–10.5)</t>
+        </is>
+      </c>
+      <c r="AC84" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–15.0)</t>
+        </is>
+      </c>
+      <c r="AD84" t="inlineStr">
+        <is>
+          <t>10.0 (5.0–15.0)</t>
+        </is>
+      </c>
+      <c r="AE84">
+        <v>0.5534</v>
+      </c>
+      <c r="AF84" t="inlineStr">
+        <is>
+          <t>Módulo 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>p18_p2</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Minutos de espera del transporte</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–10.5)</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–10.0)</t>
+        </is>
+      </c>
+      <c r="F85">
+        <v>0.5096000000000001</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–11.2)</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–10.0)</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–10.0)</t>
+        </is>
+      </c>
+      <c r="J85">
+        <v>0.8794</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–10.0)</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>10.0 (5.0–15.0)</t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–10.0)</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>5.0 (4.8–10.0)</t>
+        </is>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–15.0)</t>
+        </is>
+      </c>
+      <c r="U85">
+        <v>0.2728</v>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>5.0 (3.5–10.0)</t>
+        </is>
+      </c>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>6.0 (5.0–10.0)</t>
+        </is>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–10.0)</t>
+        </is>
+      </c>
+      <c r="Y85" t="inlineStr">
+        <is>
+          <t>12.0 (12.0–12.0)</t>
+        </is>
+      </c>
+      <c r="Z85" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–10.0)</t>
+        </is>
+      </c>
+      <c r="AA85">
+        <v>0.8258</v>
+      </c>
+      <c r="AB85" t="inlineStr">
+        <is>
+          <t>8.0 (5.0–11.2)</t>
+        </is>
+      </c>
+      <c r="AC85" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–9.0)</t>
+        </is>
+      </c>
+      <c r="AD85" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–13.5)</t>
+        </is>
+      </c>
+      <c r="AE85">
+        <v>0.2179</v>
+      </c>
+      <c r="AF85" t="inlineStr">
+        <is>
+          <t>Módulo 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>p18_p3</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Minutos de trayecto en transporte (arranca -&gt; baja)</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>30.0 (20.0–40.0)</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>30.0 (16.2–40.0)</t>
+        </is>
+      </c>
+      <c r="F86">
+        <v>0.5624</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>22.5 (20.0–35.0)</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>30.0 (20.0–41.2)</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>27.5 (15.0–40.0)</t>
+        </is>
+      </c>
+      <c r="J86">
+        <v>0.1903</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>30.0 (20.0–40.0)</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>30.0 (20.0–37.5)</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>30.0 (15.0–40.0)</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>20.0 (15.0–30.0)</t>
+        </is>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>30.0 (20.0–40.0)</t>
+        </is>
+      </c>
+      <c r="U86">
+        <v>0.0902</v>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>30.0 (17.5–40.0)</t>
+        </is>
+      </c>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>30.0 (20.0–40.0)</t>
+        </is>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>30.0 (20.0–40.0)</t>
+        </is>
+      </c>
+      <c r="Y86" t="inlineStr">
+        <is>
+          <t>45.0 (45.0–45.0)</t>
+        </is>
+      </c>
+      <c r="Z86" t="inlineStr">
+        <is>
+          <t>30.0 (20.0–37.5)</t>
+        </is>
+      </c>
+      <c r="AA86">
+        <v>0.762</v>
+      </c>
+      <c r="AB86" t="inlineStr">
+        <is>
+          <t>30.0 (20.0–40.0)</t>
+        </is>
+      </c>
+      <c r="AC86" t="inlineStr">
+        <is>
+          <t>30.0 (20.0–40.0)</t>
+        </is>
+      </c>
+      <c r="AD86" t="inlineStr">
+        <is>
+          <t>25.0 (15.0–37.5)</t>
+        </is>
+      </c>
+      <c r="AE86">
+        <v>0.4137</v>
+      </c>
+      <c r="AF86" t="inlineStr">
+        <is>
+          <t>Módulo 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>p18_p4</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Minutos caminando después del descenso</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>10.0 (5.0–15.0)</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>10.0 (5.0–15.0)</t>
+        </is>
+      </c>
+      <c r="F87">
+        <v>0.7896</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>10.0 (5.0–11.2)</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>10.0 (5.0–15.0)</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>10.0 (5.0–14.2)</t>
+        </is>
+      </c>
+      <c r="J87">
+        <v>0.9721</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>10.0 (5.0–15.0)</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>10.0 (5.0–20.0)</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>10.0 (5.0–15.0)</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–15.0)</t>
+        </is>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–10.0)</t>
+        </is>
+      </c>
+      <c r="U87">
+        <v>0.0148</v>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>10.0 (5.0–15.0)</t>
+        </is>
+      </c>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>5.0 (1.5–10.0)</t>
+        </is>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>10.0 (5.0–11.2)</t>
+        </is>
+      </c>
+      <c r="Y87" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–5.0)</t>
+        </is>
+      </c>
+      <c r="Z87" t="inlineStr">
+        <is>
+          <t>10.0 (5.0–15.0)</t>
+        </is>
+      </c>
+      <c r="AA87">
+        <v>0.0389</v>
+      </c>
+      <c r="AB87" t="inlineStr">
+        <is>
+          <t>8.5 (5.0–10.0)</t>
+        </is>
+      </c>
+      <c r="AC87" t="inlineStr">
+        <is>
+          <t>10.0 (5.0–15.0)</t>
+        </is>
+      </c>
+      <c r="AD87" t="inlineStr">
+        <is>
+          <t>10.0 (5.0–15.0)</t>
+        </is>
+      </c>
+      <c r="AE87">
+        <v>0.046</v>
+      </c>
+      <c r="AF87" t="inlineStr">
+        <is>
+          <t>Módulo 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
           <t>p18_c1</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>Minutos de la caminata a su destino</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>17.5 (10.0–22.5)</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>20.0 (16.2–50.0)</t>
         </is>
       </c>
-      <c r="F84">
+      <c r="F88">
         <v>0.4324</v>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>10.0 (10.0–10.0)</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>20.0 (15.0–45.0)</t>
         </is>
       </c>
-      <c r="I84" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>20.0 (8.8–20.0)</t>
         </is>
       </c>
-      <c r="J84">
+      <c r="J88">
         <v>0.4183</v>
       </c>
-      <c r="L84" t="inlineStr">
+      <c r="L88" t="inlineStr">
         <is>
           <t>20.0 (11.2–27.5)</t>
         </is>
       </c>
-      <c r="Q84" t="inlineStr">
+      <c r="Q88" t="inlineStr">
         <is>
           <t>25.0 (18.8–40.0)</t>
         </is>
       </c>
-      <c r="R84" t="inlineStr">
+      <c r="R88" t="inlineStr">
         <is>
           <t>20.0 (10.0–20.0)</t>
         </is>
       </c>
-      <c r="T84" t="inlineStr">
+      <c r="T88" t="inlineStr">
         <is>
           <t>5.0 (5.0–5.0)</t>
         </is>
       </c>
-      <c r="U84">
+      <c r="U88">
         <v>0.2183</v>
       </c>
-      <c r="V84" t="inlineStr">
+      <c r="V88" t="inlineStr">
         <is>
           <t>15.0 (15.0–15.0)</t>
         </is>
       </c>
-      <c r="W84" t="inlineStr">
+      <c r="W88" t="inlineStr">
         <is>
           <t>10.0 (7.0–15.0)</t>
         </is>
       </c>
-      <c r="X84" t="inlineStr">
+      <c r="X88" t="inlineStr">
         <is>
           <t>20.0 (13.8–32.5)</t>
         </is>
       </c>
-      <c r="Z84" t="inlineStr">
+      <c r="Z88" t="inlineStr">
         <is>
           <t>40.0 (30.0–50.0)</t>
         </is>
       </c>
-      <c r="AA84">
+      <c r="AA88">
         <v>0.3308</v>
       </c>
-      <c r="AB84" t="inlineStr">
+      <c r="AB88" t="inlineStr">
         <is>
           <t>7.5 (4.8–12.5)</t>
         </is>
       </c>
-      <c r="AC84" t="inlineStr">
+      <c r="AC88" t="inlineStr">
         <is>
           <t>17.5 (13.8–32.5)</t>
         </is>
       </c>
-      <c r="AD84" t="inlineStr">
+      <c r="AD88" t="inlineStr">
         <is>
           <t>25.0 (20.0–37.5)</t>
         </is>
       </c>
-      <c r="AE84">
+      <c r="AE88">
         <v>0.0774</v>
       </c>
-      <c r="AF84" t="inlineStr">
+      <c r="AF88" t="inlineStr">
         <is>
           <t>Módulo 2</t>
         </is>
